--- a/Gráficos_vetores.xlsx
+++ b/Gráficos_vetores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Pasta-kaique\Gitihub\KaiqueAndeloci\APS-quarto-semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E54D8C-9237-4DBB-B49E-297FFC8DB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E3FD3-7B9D-4FA1-A6CF-542FA8AA6623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8AC89D2-1BC2-4B03-96D9-E7F7F40DBAF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C8AC89D2-1BC2-4B03-96D9-E7F7F40DBAF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelas" sheetId="1" r:id="rId1"/>
@@ -31,52 +31,10 @@
     <definedName name="_xlchart.v1.19" hidden="1">Tabelas!$P$2</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Tabelas!$G$3:$G$10</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Tabelas!$P$3:$P$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Tabelas!$F$3:$F$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Tabelas!$G$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Tabelas!$G$3:$G$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Tabelas!$H$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Tabelas!$H$3:$H$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Tabelas!$I$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Tabelas!$I$3:$I$11</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Tabelas!$J$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Tabelas!$J$3:$J$11</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Tabelas!$H$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Tabelas!$K$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Tabelas!$K$3:$K$11</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Tabelas!$L$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Tabelas!$L$3:$L$11</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Tabelas!$M$2</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Tabelas!$M$3:$M$11</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Tabelas!$N$2</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Tabelas!$N$3:$N$11</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Tabelas!$O$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Tabelas!$O$3:$O$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Tabelas!$H$3:$H$10</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Tabelas!$P$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Tabelas!$P$3:$P$11</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Tabelas!$F$3:$F$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Tabelas!$G$2</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Tabelas!$G$3:$G$10</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Tabelas!$H$2</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Tabelas!$H$3:$H$10</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Tabelas!$I$2</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Tabelas!$I$3:$I$10</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Tabelas!$J$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Tabelas!$I$2</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Tabelas!$J$3:$J$10</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Tabelas!$K$2</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Tabelas!$K$3:$K$10</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Tabelas!$L$2</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Tabelas!$L$3:$L$10</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Tabelas!$M$2</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Tabelas!$M$3:$M$10</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Tabelas!$N$2</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Tabelas!$N$3:$N$10</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Tabelas!$O$2</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Tabelas!$I$3:$I$10</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Tabelas!$O$3:$O$10</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Tabelas!$P$2</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Tabelas!$P$3:$P$10</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Tabelas!$J$2</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Tabelas!$J$3:$J$10</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Tabelas!$K$2</definedName>
@@ -100,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>tamanho do vetor</t>
   </si>
@@ -118,9 +76,6 @@
   </si>
   <si>
     <t>Selection Sort</t>
-  </si>
-  <si>
-    <t>frequencia (segundos)</t>
   </si>
   <si>
     <t>Tempo de execução (segundos)</t>
@@ -175,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +149,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -319,17 +282,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -364,11 +316,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -378,14 +367,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -395,7 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,11 +493,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelas!#REF!</c:f>
+              <c:f>Tabelas!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#REF!</c:v>
+                  <c:v>Bubble Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -525,12 +516,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelas!#REF!</c:f>
+              <c:f>Tabelas!$G$3:$P$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65800000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,11 +565,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelas!$F$3</c:f>
+              <c:f>Tabelas!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bubble Sort</c:v>
+                  <c:v>Quick Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,39 +588,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelas!$G$3:$P$3</c:f>
+              <c:f>Tabelas!$G$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.69899999999999995</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67800000000000005</c:v>
+                  <c:v>0.61099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70699999999999996</c:v>
+                  <c:v>0.72099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64700000000000002</c:v>
+                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72799999999999998</c:v>
+                  <c:v>0.64800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63500000000000001</c:v>
+                  <c:v>0.495</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68500000000000005</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63900000000000001</c:v>
+                  <c:v>0.63300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56799999999999995</c:v>
+                  <c:v>0.53400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65800000000000003</c:v>
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,11 +637,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelas!$F$4</c:f>
+              <c:f>Tabelas!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick Sort</c:v>
+                  <c:v>Insertion Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -642,39 +660,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelas!$G$4:$P$4</c:f>
+              <c:f>Tabelas!$G$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61099999999999999</c:v>
+                  <c:v>0.65300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72099999999999997</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95399999999999996</c:v>
+                  <c:v>0.45300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64800000000000002</c:v>
+                  <c:v>0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.495</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56899999999999995</c:v>
+                  <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63300000000000001</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53400000000000003</c:v>
+                  <c:v>0.55900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0.65200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,11 +709,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelas!$F$5</c:f>
+              <c:f>Tabelas!$F$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion Sort</c:v>
+                  <c:v>Selection Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -714,39 +732,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelas!$G$5:$P$5</c:f>
+              <c:f>Tabelas!$G$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.748</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65300000000000002</c:v>
+                  <c:v>0.73399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>1.022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45300000000000001</c:v>
+                  <c:v>0.63100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58899999999999997</c:v>
+                  <c:v>0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53500000000000003</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.67300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55900000000000005</c:v>
+                  <c:v>1.0369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65200000000000002</c:v>
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,11 +781,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelas!$F$6</c:f>
+              <c:f>Tabelas!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection Sort</c:v>
+                  <c:v>BucketSort </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -776,78 +794,6 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelas!$G$6:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.629</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67300000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0369999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.69599999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-486A-4170-A96C-A2E83DC6F9F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelas!$F$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BucketSort </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -868,13 +814,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-486A-4170-A96C-A2E83DC6F9F8}"/>
+              <c16:uniqueId val="{00000004-486A-4170-A96C-A2E83DC6F9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelas!$F$8</c:f>
@@ -889,9 +835,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -912,13 +856,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-486A-4170-A96C-A2E83DC6F9F8}"/>
+              <c16:uniqueId val="{00000005-486A-4170-A96C-A2E83DC6F9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelas!$F$9</c:f>
@@ -933,7 +877,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -956,13 +900,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-486A-4170-A96C-A2E83DC6F9F8}"/>
+              <c16:uniqueId val="{00000006-486A-4170-A96C-A2E83DC6F9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelas!$F$10</c:f>
@@ -977,7 +921,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1030,7 +974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-486A-4170-A96C-A2E83DC6F9F8}"/>
+              <c16:uniqueId val="{00000007-486A-4170-A96C-A2E83DC6F9F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,7 +1062,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1234,82 +1178,82 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="6">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="7">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="8">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="9">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1347,7 +1291,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{92B56292-9930-4642-830A-C331FABEE359}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>primeira vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1360,7 +1304,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F6C31341-835F-4833-99B1-EE7FB17009DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>segunda vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1373,7 +1317,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DEEE2A07-0DE4-4075-ABCB-95E6E1059DD6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.47</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>terceira vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1386,7 +1330,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0774BA9E-3575-4020-A993-437EDD57A08D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.49</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>quarta vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1399,7 +1343,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{895F11CD-99D4-4717-8D20-6C0E345BFA20}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>quinta vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1412,7 +1356,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E06A6C04-93AA-416B-A808-7DBB4019F7A8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>sexta vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1425,7 +1369,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{20EB1738-2E8C-4224-BD3D-BA361109343E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>setima vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1438,7 +1382,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D5D8827F-825E-4F97-855C-398AFBFA6308}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.57</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>oitava vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1451,7 +1395,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FE74263F-FB8F-402E-9213-4C1D81046AD0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>nona vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1464,7 +1408,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{88D36BFC-F4B0-4DB7-8B6E-67D1594CA144}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>decima vez</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2606,15 +2550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2644,15 +2588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2688,8 +2632,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="647700" y="266699"/>
-              <a:ext cx="9182100" cy="4314825"/>
+              <a:off x="647699" y="266700"/>
+              <a:ext cx="9144001" cy="4638676"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2723,8 +2667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E986085A-9C8B-418D-B0B3-C065127C8C47}" name="tamanho100" displayName="tamanho100" ref="F2:P11" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="F2:P11" xr:uid="{E986085A-9C8B-418D-B0B3-C065127C8C47}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E986085A-9C8B-418D-B0B3-C065127C8C47}" name="tamanho100" displayName="tamanho100" ref="F2:P10" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="F2:P10" xr:uid="{E986085A-9C8B-418D-B0B3-C065127C8C47}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{FE365354-2B80-4360-A304-29291BCFE615}" name="Algoritmos" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{84089A09-48FB-4F02-BF2D-0E7893ECE515}" name="primeira vez"/>
@@ -3041,19 +2985,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4379111C-4C7D-4323-BF50-9964F7AFE514}">
   <dimension ref="C1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.25">
@@ -3064,7 +3012,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
@@ -3082,34 +3030,34 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -3117,34 +3065,34 @@
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>0.69899999999999995</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>0.67800000000000005</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>0.70699999999999996</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>0.64700000000000002</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>0.72799999999999998</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>0.63500000000000001</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>0.68500000000000005</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>0.63900000000000001</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>0.56799999999999995</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>0.65800000000000003</v>
       </c>
     </row>
@@ -3153,34 +3101,34 @@
       <c r="F4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.22500000000000001</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>0.61099999999999999</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>0.72099999999999997</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>0.95399999999999996</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>0.64800000000000002</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>0.495</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>0.56899999999999995</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>0.63300000000000001</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <v>0.53400000000000003</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="14">
         <v>0.64500000000000002</v>
       </c>
     </row>
@@ -3189,34 +3137,34 @@
       <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>0.748</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0.65300000000000002</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>0.45300000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>0.58899999999999997</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>0.53500000000000003</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>0.55900000000000005</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>0.65200000000000002</v>
       </c>
     </row>
@@ -3225,41 +3173,41 @@
       <c r="F6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>1.022</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <v>0.63100000000000001</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>0.629</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>0.49</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>0.67300000000000004</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>1.0369999999999999</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3275,7 +3223,7 @@
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3291,7 +3239,7 @@
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
       <c r="F9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3305,14 +3253,14 @@
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="11"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7">
         <v>0.72699999999999998</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>1.079</v>
       </c>
       <c r="I10" s="7">
@@ -3347,8 +3295,8 @@
       <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="20">
-        <v>20000</v>
+      <c r="F13" s="16">
+        <v>1000</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>6</v>
@@ -3370,35 +3318,35 @@
       <c r="F14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>4</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>6</v>
-      </c>
-      <c r="M14" s="2">
-        <v>7</v>
-      </c>
-      <c r="N14" s="2">
-        <v>8</v>
-      </c>
-      <c r="O14" s="2">
-        <v>9</v>
-      </c>
-      <c r="P14" s="9">
-        <v>10</v>
+      <c r="G14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
@@ -3417,7 +3365,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="10"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
@@ -3435,7 +3383,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="10"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="7"/>
@@ -3453,7 +3401,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="10"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
@@ -3471,14 +3419,14 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="10"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3489,14 +3437,14 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="10"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -3507,14 +3455,14 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -3525,25 +3473,25 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="10"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="14"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="13"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C23" s="7"/>
@@ -3570,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F3E1B4-361E-496F-81B8-80840983B20B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
